--- a/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,209 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45348</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
         <v>34</v>
       </c>
     </row>
@@ -485,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,17 +691,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>74</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,63 +599,39 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45354.99999999999</v>
-      </c>
-      <c r="B25" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B27" t="n">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +718,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -767,14 +743,6 @@
       </c>
       <c r="B11" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -743,6 +744,481 @@
       </c>
       <c r="B11" t="n">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>81</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-54.3025753139986</v>
+      </c>
+      <c r="D2" t="n">
+        <v>221.350523849097</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-62.46981318566891</v>
+      </c>
+      <c r="D3" t="n">
+        <v>213.7072678520938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-65.71347691380716</v>
+      </c>
+      <c r="D4" t="n">
+        <v>214.3159325205371</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-53.40729397585196</v>
+      </c>
+      <c r="D5" t="n">
+        <v>219.4173300851554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-49.80708859136582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>219.532635254218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-70.52197524772404</v>
+      </c>
+      <c r="D7" t="n">
+        <v>212.8226613008328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-53.10713598152353</v>
+      </c>
+      <c r="D8" t="n">
+        <v>219.4790052940547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-71.30750542492733</v>
+      </c>
+      <c r="D9" t="n">
+        <v>218.7840149041539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-70.465691264353</v>
+      </c>
+      <c r="D10" t="n">
+        <v>218.0861947886308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-55.6542192531793</v>
+      </c>
+      <c r="D11" t="n">
+        <v>217.5412095278384</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-57.67405359736986</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.4181307373896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-70.9790842981938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>228.1511328488441</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-71.16056488900254</v>
+      </c>
+      <c r="D14" t="n">
+        <v>215.4429453292274</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-67.7152887766419</v>
+      </c>
+      <c r="D15" t="n">
+        <v>223.1827637176355</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-70.83041802300018</v>
+      </c>
+      <c r="D16" t="n">
+        <v>208.1762953952143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>76</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-58.81840744923019</v>
+      </c>
+      <c r="D17" t="n">
+        <v>214.9078535796492</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>76</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-73.17037691955019</v>
+      </c>
+      <c r="D18" t="n">
+        <v>216.9168101939839</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>76</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-70.19977603106814</v>
+      </c>
+      <c r="D19" t="n">
+        <v>218.1593329561975</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-66.23641370593647</v>
+      </c>
+      <c r="D20" t="n">
+        <v>219.2149337221066</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>74</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-70.42209246650972</v>
+      </c>
+      <c r="D21" t="n">
+        <v>216.3104640563868</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>74</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-65.27277832933336</v>
+      </c>
+      <c r="D22" t="n">
+        <v>214.3875702189759</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>71</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-73.68159334975979</v>
+      </c>
+      <c r="D23" t="n">
+        <v>208.5727699867827</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>68</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-60.09933737996231</v>
+      </c>
+      <c r="D24" t="n">
+        <v>208.6558051188399</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>68</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-68.0052253494465</v>
+      </c>
+      <c r="D25" t="n">
+        <v>203.7609075901971</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>68</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-60.12858001290352</v>
+      </c>
+      <c r="D26" t="n">
+        <v>210.9350216218293</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>68</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-73.50499495848095</v>
+      </c>
+      <c r="D27" t="n">
+        <v>208.4754760230378</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-66.6248782391132</v>
+      </c>
+      <c r="D28" t="n">
+        <v>217.6680581371519</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>67</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-74.9786672012971</v>
+      </c>
+      <c r="D29" t="n">
+        <v>214.4641185049499</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>67</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-75.92929649062388</v>
+      </c>
+      <c r="D30" t="n">
+        <v>199.3220628226546</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>67</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-84.48814186990654</v>
+      </c>
+      <c r="D31" t="n">
+        <v>215.6149832292396</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-77.54041619597342</v>
+      </c>
+      <c r="D32" t="n">
+        <v>201.5596384264312</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJ6WTQ_po_data.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,16 +776,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -794,12 +784,6 @@
       <c r="B2" t="n">
         <v>81</v>
       </c>
-      <c r="C2" t="n">
-        <v>-54.3025753139986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>221.350523849097</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -808,12 +792,6 @@
       <c r="B3" t="n">
         <v>80</v>
       </c>
-      <c r="C3" t="n">
-        <v>-62.46981318566891</v>
-      </c>
-      <c r="D3" t="n">
-        <v>213.7072678520938</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,12 +800,6 @@
       <c r="B4" t="n">
         <v>80</v>
       </c>
-      <c r="C4" t="n">
-        <v>-65.71347691380716</v>
-      </c>
-      <c r="D4" t="n">
-        <v>214.3159325205371</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -836,12 +808,6 @@
       <c r="B5" t="n">
         <v>80</v>
       </c>
-      <c r="C5" t="n">
-        <v>-53.40729397585196</v>
-      </c>
-      <c r="D5" t="n">
-        <v>219.4173300851554</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -850,12 +816,6 @@
       <c r="B6" t="n">
         <v>79</v>
       </c>
-      <c r="C6" t="n">
-        <v>-49.80708859136582</v>
-      </c>
-      <c r="D6" t="n">
-        <v>219.532635254218</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -864,12 +824,6 @@
       <c r="B7" t="n">
         <v>79</v>
       </c>
-      <c r="C7" t="n">
-        <v>-70.52197524772404</v>
-      </c>
-      <c r="D7" t="n">
-        <v>212.8226613008328</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -878,12 +832,6 @@
       <c r="B8" t="n">
         <v>79</v>
       </c>
-      <c r="C8" t="n">
-        <v>-53.10713598152353</v>
-      </c>
-      <c r="D8" t="n">
-        <v>219.4790052940547</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -892,12 +840,6 @@
       <c r="B9" t="n">
         <v>78</v>
       </c>
-      <c r="C9" t="n">
-        <v>-71.30750542492733</v>
-      </c>
-      <c r="D9" t="n">
-        <v>218.7840149041539</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -906,12 +848,6 @@
       <c r="B10" t="n">
         <v>78</v>
       </c>
-      <c r="C10" t="n">
-        <v>-70.465691264353</v>
-      </c>
-      <c r="D10" t="n">
-        <v>218.0861947886308</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -920,12 +856,6 @@
       <c r="B11" t="n">
         <v>78</v>
       </c>
-      <c r="C11" t="n">
-        <v>-55.6542192531793</v>
-      </c>
-      <c r="D11" t="n">
-        <v>217.5412095278384</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -934,12 +864,6 @@
       <c r="B12" t="n">
         <v>78</v>
       </c>
-      <c r="C12" t="n">
-        <v>-57.67405359736986</v>
-      </c>
-      <c r="D12" t="n">
-        <v>217.4181307373896</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -948,12 +872,6 @@
       <c r="B13" t="n">
         <v>78</v>
       </c>
-      <c r="C13" t="n">
-        <v>-70.9790842981938</v>
-      </c>
-      <c r="D13" t="n">
-        <v>228.1511328488441</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -962,12 +880,6 @@
       <c r="B14" t="n">
         <v>77</v>
       </c>
-      <c r="C14" t="n">
-        <v>-71.16056488900254</v>
-      </c>
-      <c r="D14" t="n">
-        <v>215.4429453292274</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -976,12 +888,6 @@
       <c r="B15" t="n">
         <v>77</v>
       </c>
-      <c r="C15" t="n">
-        <v>-67.7152887766419</v>
-      </c>
-      <c r="D15" t="n">
-        <v>223.1827637176355</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -990,12 +896,6 @@
       <c r="B16" t="n">
         <v>77</v>
       </c>
-      <c r="C16" t="n">
-        <v>-70.83041802300018</v>
-      </c>
-      <c r="D16" t="n">
-        <v>208.1762953952143</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1004,12 +904,6 @@
       <c r="B17" t="n">
         <v>76</v>
       </c>
-      <c r="C17" t="n">
-        <v>-58.81840744923019</v>
-      </c>
-      <c r="D17" t="n">
-        <v>214.9078535796492</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1018,12 +912,6 @@
       <c r="B18" t="n">
         <v>76</v>
       </c>
-      <c r="C18" t="n">
-        <v>-73.17037691955019</v>
-      </c>
-      <c r="D18" t="n">
-        <v>216.9168101939839</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1032,12 +920,6 @@
       <c r="B19" t="n">
         <v>76</v>
       </c>
-      <c r="C19" t="n">
-        <v>-70.19977603106814</v>
-      </c>
-      <c r="D19" t="n">
-        <v>218.1593329561975</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1046,12 +928,6 @@
       <c r="B20" t="n">
         <v>75</v>
       </c>
-      <c r="C20" t="n">
-        <v>-66.23641370593647</v>
-      </c>
-      <c r="D20" t="n">
-        <v>219.2149337221066</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1060,12 +936,6 @@
       <c r="B21" t="n">
         <v>74</v>
       </c>
-      <c r="C21" t="n">
-        <v>-70.42209246650972</v>
-      </c>
-      <c r="D21" t="n">
-        <v>216.3104640563868</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1074,12 +944,6 @@
       <c r="B22" t="n">
         <v>74</v>
       </c>
-      <c r="C22" t="n">
-        <v>-65.27277832933336</v>
-      </c>
-      <c r="D22" t="n">
-        <v>214.3875702189759</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1088,12 +952,6 @@
       <c r="B23" t="n">
         <v>71</v>
       </c>
-      <c r="C23" t="n">
-        <v>-73.68159334975979</v>
-      </c>
-      <c r="D23" t="n">
-        <v>208.5727699867827</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1102,12 +960,6 @@
       <c r="B24" t="n">
         <v>68</v>
       </c>
-      <c r="C24" t="n">
-        <v>-60.09933737996231</v>
-      </c>
-      <c r="D24" t="n">
-        <v>208.6558051188399</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1116,12 +968,6 @@
       <c r="B25" t="n">
         <v>68</v>
       </c>
-      <c r="C25" t="n">
-        <v>-68.0052253494465</v>
-      </c>
-      <c r="D25" t="n">
-        <v>203.7609075901971</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1130,12 +976,6 @@
       <c r="B26" t="n">
         <v>68</v>
       </c>
-      <c r="C26" t="n">
-        <v>-60.12858001290352</v>
-      </c>
-      <c r="D26" t="n">
-        <v>210.9350216218293</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1144,12 +984,6 @@
       <c r="B27" t="n">
         <v>68</v>
       </c>
-      <c r="C27" t="n">
-        <v>-73.50499495848095</v>
-      </c>
-      <c r="D27" t="n">
-        <v>208.4754760230378</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1158,12 +992,6 @@
       <c r="B28" t="n">
         <v>67</v>
       </c>
-      <c r="C28" t="n">
-        <v>-66.6248782391132</v>
-      </c>
-      <c r="D28" t="n">
-        <v>217.6680581371519</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1172,12 +1000,6 @@
       <c r="B29" t="n">
         <v>67</v>
       </c>
-      <c r="C29" t="n">
-        <v>-74.9786672012971</v>
-      </c>
-      <c r="D29" t="n">
-        <v>214.4641185049499</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1186,12 +1008,6 @@
       <c r="B30" t="n">
         <v>67</v>
       </c>
-      <c r="C30" t="n">
-        <v>-75.92929649062388</v>
-      </c>
-      <c r="D30" t="n">
-        <v>199.3220628226546</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1200,12 +1016,6 @@
       <c r="B31" t="n">
         <v>67</v>
       </c>
-      <c r="C31" t="n">
-        <v>-84.48814186990654</v>
-      </c>
-      <c r="D31" t="n">
-        <v>215.6149832292396</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1213,12 +1023,6 @@
       </c>
       <c r="B32" t="n">
         <v>67</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-77.54041619597342</v>
-      </c>
-      <c r="D32" t="n">
-        <v>201.5596384264312</v>
       </c>
     </row>
   </sheetData>
